--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>74.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>30.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161912</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>31.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161913</t>
+          <t>519181</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+          <t>万家和谐增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519181</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家和谐增长混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60.73</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>020015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>国泰区位优势混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>001626</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>国泰央企改革股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001014</t>
+          <t>008640</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融融安灵活配置混合</t>
+          <t>方正富邦科技创新混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010058</t>
+          <t>008641</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘荣创一年持有期混合</t>
+          <t>方正富邦科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27.38</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>010058</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>天弘荣创一年持有期混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1024,25 +1224,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008640</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>方正富邦科技创新混合A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008641</t>
+          <t>001014</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>方正富邦科技创新混合C</t>
+          <t>中融融安灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.55</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003659</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>山西证券策略精选灵活配置混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>540004</t>
+          <t>519181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信2026周期混合</t>
+          <t>万家和谐增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>61.53</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161912</t>
+          <t>000209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+          <t>信诚新兴产业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161913</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000209</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信诚新兴产业混合</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>003659</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>山西证券策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519181</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家和谐增长混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>005978</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>中信保诚至兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5637</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,4 +3330,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.15</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.1</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.39</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3417,13 +3504,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3965,7 +3966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3976,17 +3977,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3996,14 +4017,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.91</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4012,14 +4055,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.15</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4028,14 +4093,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.1</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4044,14 +4131,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.39</v>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4060,13 +4169,279 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4324,7 +4325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4335,17 +4336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4355,14 +4376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.5</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4371,14 +4414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.91</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4387,14 +4452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.15</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4403,14 +4490,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.1</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4419,14 +4528,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.39</v>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4435,13 +4566,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>9.76</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.5</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>17.91</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>15.15</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>6.39</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.84</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3689,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4239,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688006-杭可科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>5.58</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>9.76</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>17.91</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>15.15</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>14.1</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>6.39</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.84</v>
       </c>
     </row>
@@ -616,7 +633,1409 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +4347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3592,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4332,7 +5751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4880,934 +6299,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5174</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6619</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2885</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8195</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519181</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家和谐增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7480</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007449</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5772</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰金鼎价值混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5191</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3343</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001626</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰央企改革股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008640</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>方正富邦科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0894</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008641</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>方正富邦科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007450</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010058</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘荣创一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>